--- a/datas/延保接口用例.xlsx
+++ b/datas/延保接口用例.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>case_id</t>
   </si>
@@ -65,6 +65,18 @@
   </si>
   <si>
     <t>{"code":0,"msg":"OK","data":{"country":"US","productModel":"DR-HFV001","warrantyDuration":"30 months","walmartProductId":"","agreeSubscribe":True}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚马逊渠道-延保成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃尔玛渠道-延保成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他渠道-延保成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -454,6 +466,66 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datas/延保接口用例.xlsx
+++ b/datas/延保接口用例.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="71">
   <si>
     <t>case_id</t>
   </si>
@@ -68,15 +68,235 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>沃尔玛渠道-延保成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他渠道-延保成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"agreeSubscribe":True,"country":"US","productCategory":"Vacuum cleaners","productModel":"DR-HFV001","purchasedChannel":"#purchased_channel#","orderNumber":"12201553","firstName":"#first_name#","lastName":"#last_name#","phone":"#phone#","purchasedDate":"#current_time#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'code': 100015, 'msg': 'order number error'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网渠道-订单号官网单词错误-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"agreeSubscribe":True,"country":"US","productCategory":"Vacuum cleaners","productModel":"DR-HFV001","purchasedChannel":"#purchased_channel#","orderNumber":"DERO1558","firstName":"#first_name#","lastName":"#last_name#","phone":"#phone#","purchasedDate":"#current_time#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网渠道-订单号类型错误-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网渠道-订单号与官网单词替换位置-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"agreeSubscribe":True,"country":"US","productCategory":"Vacuum cleaners","productModel":"DR-HFV001","purchasedChannel":"#purchased_channel#","orderNumber":"1200DREO","firstName":"#first_name#","lastName":"#last_name#","phone":"#phone#","purchasedDate":"#current_time#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"agreeSubscribe":True,"country":"US","productCategory":"Vacuum cleaners","productModel":"DR-HFV001","purchasedChannel":"#purchased_channel#","orderNumber":"DREO12345","firstName":"#first_name#","lastName":"#last_name#","phone":"#phone#","purchasedDate":"#current_time#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'code': 100015, 'msg': 'order number error'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网渠道-订单号前后空格-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"agreeSubscribe":True,"country":"US","productCategory":"Vacuum cleaners","productModel":"DR-HFV001","purchasedChannel":"#purchased_channel#","orderNumber":" DREO1224 ","firstName":"#first_name#","lastName":"#last_name#","phone":"#phone#","purchasedDate":"#current_time#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网渠道-订单号长度超出限制-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网渠道-订单号长度小于限制-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"agreeSubscribe":True,"country":"US","productCategory":"Vacuum cleaners","productModel":"DR-HFV001","purchasedChannel":"#purchased_channel#","orderNumber":"DREO122","firstName":"#first_name#","lastName":"#last_name#","phone":"#phone#","purchasedDate":"#current_time#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>亚马逊渠道-延保成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>沃尔玛渠道-延保成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他渠道-延保成功</t>
+    <t>亚马逊渠道-订单号前后空格-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"agreeSubscribe":True,"country":"US","productCategory":"Vacuum cleaners","productModel":"DR-HFV001","purchasedChannel":"#purchased_channel#","orderNumber":"15531231231233123","firstName":"#first_name#","lastName":"#last_name#","phone":"#phone#","purchasedDate":"#current_time#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚马逊渠道-订单号格式错误（没有-）-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚马逊渠道-订单号超出长度-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"agreeSubscribe":True,"country":"US","productCategory":"Vacuum cleaners","productModel":"DR-HFV001","purchasedChannel":"#purchased_channel#","orderNumber":"123-1234567-12345678","firstName":"#first_name#","lastName":"#last_name#","phone":"#phone#","purchasedDate":"#current_time#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚马逊渠道-订单号小于限制长度-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"agreeSubscribe":True,"country":"US","productCategory":"Vacuum cleaners","productModel":"DR-HFV001","purchasedChannel":"#purchased_channel#","orderNumber":"123-1234567-123456","firstName":"#first_name#","lastName":"#last_name#","phone":"#phone#","purchasedDate":"#current_time#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"agreeSubscribe":True,"country":"US","productCategory":"Vacuum cleaners","productModel":"DR-HFV001","purchasedChannel":"#purchased_channel#","orderNumber":" 123-1234567-1234567 ","firstName":"#first_name#","lastName":"#last_name#","phone":"#phone#","purchasedDate":"#current_time#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃尔玛渠道-订单号没有（#号）-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"agreeSubscribe":True,"country":"US","productCategory":"Vacuum cleaners","productModel":"DR-HFV001","purchasedChannel":"#purchased_channel#","orderNumber":"1231234-567123","firstName":"#first_name#","lastName":"#last_name#","phone":"#phone#","purchasedDate":"#current_time#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃尔玛渠道-订单号没有（-号）-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"agreeSubscribe":True,"country":"US","productCategory":"Vacuum cleaners","productModel":"DR-HFV001","purchasedChannel":"#purchased_channel#","orderNumber":"1231234567123","firstName":"#first_name#","lastName":"#last_name#","phone":"#phone#","purchasedDate":"#current_time#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃尔玛渠道-订单号长度超出范围-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"agreeSubscribe":True,"country":"US","productCategory":"Vacuum cleaners","productModel":"DR-HFV001","purchasedChannel":"#purchased_channel#","orderNumber":"1231234-5671232","firstName":"#first_name#","lastName":"#last_name#","phone":"#phone#","purchasedDate":"#current_time#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃尔玛渠道-订单号长度小于限制范围-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"agreeSubscribe":True,"country":"US","productCategory":"Vacuum cleaners","productModel":"DR-HFV001","purchasedChannel":"#purchased_channel#","orderNumber":"1231234-56712","firstName":"#first_name#","lastName":"#last_name#","phone":"#phone#","purchasedDate":"#current_time#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃尔玛渠道-订单号前后空格-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"agreeSubscribe":True,"country":"US","productCategory":"Vacuum cleaners","productModel":"DR-HFV001","purchasedChannel":"#purchased_channel#","orderNumber":" 1231234-567123 ","firstName":"#first_name#","lastName":"#last_name#","phone":"#phone#","purchasedDate":"#current_time#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃尔玛渠道-订单号为空-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"agreeSubscribe":True,"country":"US","productCategory":"Vacuum cleaners","productModel":"DR-HFV001","purchasedChannel":"#purchased_channel#","orderNumber":"","firstName":"#first_name#","lastName":"#last_name#","phone":"#phone#","purchasedDate":"#current_time#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚马逊渠道-订单号为空-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网渠道-订单号为空-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"agreeSubscribe":True,"country":"US","productCategory":"Vacuum cleaners","productModel":"DR-HFV001","purchasedChannel":"#purchased_channel#","orderNumber":"","firstName":"#first_name#","lastName":"#last_name#","phone":"#phone#","purchasedDate":"#current_time#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他渠道-订单号没有（CS）-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"agreeSubscribe":True,"country":"US","productCategory":"Vacuum cleaners","productModel":"DR-HFV001","purchasedChannel":"#purchased_channel#","orderNumber":"12312345","firstName":"#first_name#","lastName":"#last_name#","phone":"#phone#","purchasedDate":"#current_time#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"agreeSubscribe":True,"country":"US","productCategory":"Vacuum cleaners","productModel":"DR-HFV001","purchasedChannel":"#purchased_channel#","orderNumber":"DF12312345","firstName":"#first_name#","lastName":"#last_name#","phone":"#phone#","purchasedDate":"#current_time#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他渠道-订单号前缀不是（CS）-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他渠道-订单号长度超出范围-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他渠道-订单号前后空格-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他渠道-订单号为空-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"agreeSubscribe":True,"country":"US","productCategory":"Vacuum cleaners","productModel":"DR-HFV001","purchasedChannel":"#purchased_channel#","orderNumber":"CS123123456","firstName":"#first_name#","lastName":"#last_name#","phone":"#phone#","purchasedDate":"#current_time#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他渠道-订单号长度小于限制范围-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"agreeSubscribe":True,"country":"US","productCategory":"Vacuum cleaners","productModel":"DR-HFV001","purchasedChannel":"#purchased_channel#","orderNumber":"CS1231234","firstName":"#first_name#","lastName":"#last_name#","phone":"#phone#","purchasedDate":"#current_time#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"agreeSubscribe":True,"country":"US","productCategory":"Vacuum cleaners","productModel":"DR-HFV001","purchasedChannel":"#purchased_channel#","orderNumber":" CS12312345 ","firstName":"#first_name#","lastName":"#last_name#","phone":"#phone#","purchasedDate":"#current_time#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"agreeSubscribe":True,"country":"US","productCategory":"Vacuum cleaners","productModel":"DR-HFV001","purchasedChannel":"#purchased_channel#","orderNumber":"","firstName":"#first_name#","lastName":"#last_name#","phone":"#phone#","purchasedDate":"#current_time#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'code': 100008, 'msg': 'orderNumber:order number is empty'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'code': 100008, 'msg': 'orderNumber:order number is empty'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'code': 100015, 'msg': 'order number error'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"agreeSubscribe":True,"country":"","productCategory":"Vacuum cleaners","productModel":"DR-HFV001","purchasedChannel":"#purchased_channel#","orderNumber":"#order_number#","firstName":"#first_name#","lastName":"#last_name#","phone":"#phone#","purchasedDate":"#current_time#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网渠道-国家参数为空-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'code': 100008, 'msg': 'country:country code is empty | country:country code invalid'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,15 +625,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
     <col min="3" max="3" width="6.83203125" customWidth="1"/>
     <col min="4" max="4" width="24.4140625" customWidth="1"/>
     <col min="5" max="5" width="67.08203125" customWidth="1"/>
@@ -471,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -491,7 +711,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -508,10 +728,10 @@
     </row>
     <row r="5" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -524,6 +744,506 @@
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/datas/延保接口用例.xlsx
+++ b/datas/延保接口用例.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>case_id</t>
   </si>
@@ -297,6 +297,90 @@
   </si>
   <si>
     <t>{'code': 100008, 'msg': 'country:country code is empty | country:country code invalid'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"agreeSubscribe":True,"country":"","productCategory":"","productModel":"DR-HFV001","purchasedChannel":"#purchased_channel#","orderNumber":"#order_number#","firstName":"#first_name#","lastName":"#last_name#","phone":"#phone#","purchasedDate":"#current_time#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'code': 100008, 'msg': 'productCategory:product category is empty | country:country code invalid | country:country code is empty'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网渠道-产品分类参数为空-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"agreeSubscribe":True,"country":"US","productCategory":"Vacuum cleaners","productModel":"","purchasedChannel":"#purchased_channel#","orderNumber":"#order_number#","firstName":"#first_name#","lastName":"#last_name#","phone":"#phone#","purchasedDate":"#current_time#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'code': 100008, 'msg': 'productModel:product model is empty'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网渠道-产品渠道参数为空-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品渠道参数为空-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"agreeSubscribe":True,"country":"US","productCategory":"Vacuum cleaners","productModel":"DR-HFV001","purchasedChannel":"","orderNumber":"1234567890","firstName":"#first_name#","lastName":"#last_name#","phone":"#phone#","purchasedDate":"#current_time#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'code': 100008, 'msg': 'purchasedChannel:purchased channel is empty'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网渠道-购买日期为空-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"agreeSubscribe":True,"country":"US","productCategory":"Vacuum cleaners","productModel":"DR-HFV001","purchasedChannel":"#purchased_channel#","orderNumber":"#order_number#","firstName":"#first_name#","lastName":"#last_name#","phone":"#phone#","purchasedDate":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'code': 100008, 'msg': 'purchasedDate:purchase date is empty'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网渠道-first name参数为空-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网渠道-last name参数为空-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"agreeSubscribe":True,"country":"US","productCategory":"Vacuum cleaners","productModel":"DR-HFV001","purchasedChannel":"#purchased_channel#","orderNumber":"#order_number#","firstName":"#first_name#","lastName":"","phone":"#phone#","purchasedDate":"#current_time#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'code': 100008, 'msg': 'firstName:first name is empty | firstName:first name length must 1~30 char'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'code': 100008, 'msg': 'lastName:last name length must 1~30 char | lastName:last name is empty'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网渠道-phone number参数为空-延保失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"agreeSubscribe":True,"country":"US","productCategory":"Vacuum cleaners","productModel":"DR-HFV001","purchasedChannel":"#purchased_channel#","orderNumber":"#order_number#","firstName":"","lastName":"#last_name#","phone":"#phone#","purchasedDate":"#current_time#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"agreeSubscribe":True,"country":"US","productCategory":"Vacuum cleaners","productModel":"DR-HFV001","purchasedChannel":"#purchased_channel#","orderNumber":"#order_number#","firstName":"#first_name#","lastName":"#last_name#","phone":"","purchasedDate":"#current_time#"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'code': 100008, 'msg': 'phone:phone is empty | phone:phone number invalid'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -625,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1246,6 +1330,146 @@
         <v>70</v>
       </c>
     </row>
+    <row r="31" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
